--- a/public/layoutadjustmentstok_expired.xlsx
+++ b/public/layoutadjustmentstok_expired.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJEK\inventory_bsb\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24D54B6-D38C-437C-9CFA-3627B2124160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>kode</t>
   </si>
@@ -39,13 +40,25 @@
   </si>
   <si>
     <t>tgl_expired</t>
+  </si>
+  <si>
+    <t>stok total</t>
+  </si>
+  <si>
+    <t>harga beli</t>
+  </si>
+  <si>
+    <t>diskon_persen</t>
+  </si>
+  <si>
+    <t>diskon_rupiah</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,16 +66,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -70,12 +97,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,37 +400,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/public/layoutadjustmentstok_expired.xlsx
+++ b/public/layoutadjustmentstok_expired.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJEK\inventory_bsb\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24D54B6-D38C-437C-9CFA-3627B2124160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5526BF53-78E1-486C-89EF-B5FEF052B70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>kode</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>diskon_rupiah</t>
+  </si>
+  <si>
+    <t>kode supplier</t>
   </si>
 </sst>
 </file>
@@ -401,50 +404,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/public/layoutadjustmentstok_expired.xlsx
+++ b/public/layoutadjustmentstok_expired.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJEK\inventory_bsb\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5526BF53-78E1-486C-89EF-B5FEF052B70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8744F3-CFFC-43F5-8719-45E055FAD503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -407,7 +407,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
